--- a/work/sample.xlsx
+++ b/work/sample.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">ID Produttore</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">Produttore</t>
   </si>
   <si>
     <t xml:space="preserve">Categoria</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Descrizione Breve</t>
   </si>
   <si>
-    <t xml:space="preserve">Prezzo + IVA</t>
+    <t xml:space="preserve">Prezzo IVATO</t>
   </si>
   <si>
     <t xml:space="preserve">Prezzo Corrente + IVA</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">IVA</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantita’</t>
+    <t xml:space="preserve">Quantità</t>
   </si>
   <si>
     <t xml:space="preserve">Peso
@@ -73,6 +73,21 @@
   <si>
     <t xml:space="preserve">Profondita’
 [mm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASTA001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigatoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasta Rigatoni</t>
   </si>
 </sst>
 </file>
@@ -87,6 +102,7 @@
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -108,6 +124,7 @@
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,23 +209,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,10 +352,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="104" zoomScaleNormal="104" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -349,10 +366,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.34"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="11.53"/>
@@ -360,7 +377,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="43" min="18" style="3" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -408,6 +425,56 @@
       </c>
       <c r="P1" s="5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>293484287328</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>2983293829</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
